--- a/biology/Botanique/Hydrangea_anomala/Hydrangea_anomala.xlsx
+++ b/biology/Botanique/Hydrangea_anomala/Hydrangea_anomala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrangea anomala est une espèce du genre Hydrangea originaire d'Asie tropicale (Chine, Inde, Népal, Myanmar). Il est parfois confondu avec Hydrangea petiolaris Siebold &amp; Zucc (1839), un autre hortensia grimpant, originaire d'Asie orientale tempérée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrangea anomala est une espèce du genre Hydrangea originaire d'Asie tropicale (Chine, Inde, Népal, Myanmar). Il est parfois confondu avec Hydrangea petiolaris Siebold &amp; Zucc (1839), un autre hortensia grimpant, originaire d'Asie orientale tempérée.
 Synonymes[N 1] : 
 Hydrangea altissima Wall.,
 Hydrangea anomala subsp. anomala
@@ -519,9 +531,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrangea anomala une plante grimpante caduque, de 2 à 4 mètres de haut[2], voire plus. Elle s'accroche aux murs ou à un support grâce à des racines-crampons. Ses rameaux gris-brun sont robustes et glabres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrangea anomala une plante grimpante caduque, de 2 à 4 mètres de haut, voire plus. Elle s'accroche aux murs ou à un support grâce à des racines-crampons. Ses rameaux gris-brun sont robustes et glabres.
 Les feuilles sont vert moyen, larges, ovales à elliptiques, parcheminées, opposées et glabres. Leur marge est densément serrulée. Elles sont portées par un pétiole de 2-8 cm.
 En été, la plante produit des inflorescences à petites fleurs fertiles internes blanches, entourées de grandes fleurs stériles portant 4 sépales blancs. Les pétales, soudés par leur extrémité, forme un calyptre. Ils entourent 9 à 18 étamines et 2 (-3) styles.
 Le fruit est une capsule en forme d'urne, de 3-4 mm de diamètre.
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hydrangea croît naturellement dans les forêts de Chine[N 2], à Taïwan, au Japon (Hokkaido, Honshu), en Inde[N 3], au Myanmar, Népal, Bhoutan et Sikkim.
 </t>
@@ -584,10 +600,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce utilisée comme plante grimpante qui se trouve  aisément en France. Elle exige un substrat acide à neutre.
-De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont [3]:
+De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont :
 Hyndrangea anomala ‘Brookside littel leaf’ (variété plutôt couvre-sol)
 Hydrangea anomala ‘Petiolaris’ (l'hortensia grimpant par excellence)
 Hydrangea anomala ‘Petiolaris firefly. Syn. Mirranda’ (variété panachée)
